--- a/routes/uploads/restored_a.xlsx
+++ b/routes/uploads/restored_a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>Powered by Spread.Sheets.</t>
   </si>
@@ -25,13 +25,166 @@
     <t xml:space="preserve">Temporary deployment keys are available for testing. </t>
   </si>
   <si>
-    <t>ㅈ</t>
-  </si>
-  <si>
-    <t>ㅌ</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>202112</t>
+  </si>
+  <si>
+    <t>202212</t>
+  </si>
+  <si>
+    <t>202312</t>
+  </si>
+  <si>
+    <t>ep</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15243</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>ite</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>oi</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>ibt</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>evebitda</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>roe</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>bps</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>fpl</t>
+  </si>
+  <si>
+    <t>epl</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>stock_id</t>
+  </si>
+  <si>
+    <t>054901</t>
   </si>
 </sst>
 </file>
@@ -366,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{75C59581-CA74-E5BF-59F7-0AB825AF9611}" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{10481C8B-8881-91B2-051A-FF3D3B62DDBB}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -395,43 +548,307 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{AA6E0F8D-7D8F-9B07-DA78-6FA1F5200EFA}" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{1228481B-B936-31EC-583B-B4E57C423273}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0" tabSelected="1">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0" tabSelected="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" customHeight="1" defaultRowHeight="15"/>
   <sheetData>
     <row customHeight="1" ht="15">
-      <c r="A1" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15">
-      <c r="B2" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" ht="15">
-      <c r="B4" s="0">
+      <c r="A1" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15">
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" ht="15">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15">
-      <c r="E8" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c r="A21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -439,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{2803E22B-5B3A-13DD-15CE-0489BED768B3}" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{2095EBC2-CAA5-05E7-30B3-C87F2E568513}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView topLeftCell="A1" workbookViewId="0">
